--- a/papa2 - werkstations/Tijdsindeling.xlsx
+++ b/papa2 - werkstations/Tijdsindeling.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egon\p3ops-red\papa2 - werkstations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Geschatte tijd (u)</t>
   </si>
@@ -38,7 +38,13 @@
     <t>Gewerkte tijd (u)</t>
   </si>
   <si>
-    <t>Lokaal mscs</t>
+    <t>Handmatig mscs</t>
+  </si>
+  <si>
+    <t>Testplan handmatig mscs</t>
+  </si>
+  <si>
+    <t>Automatisch mscs installeren</t>
   </si>
 </sst>
 </file>
@@ -330,15 +336,27 @@
             <c:multiLvlStrRef>
               <c:f>Papa2!$A$2:$B$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Lokaal mscs</c:v>
+                    <c:v>Handmatig mscs</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Testplan handmatig mscs</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Automatisch mscs installeren</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -350,6 +368,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -387,15 +414,27 @@
             <c:multiLvlStrRef>
               <c:f>Papa2!$A$2:$B$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Lokaal mscs</c:v>
+                    <c:v>Handmatig mscs</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Testplan handmatig mscs</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Automatisch mscs installeren</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -515,7 +554,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1616,20 +1655,20 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1640,137 +1679,151 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6">
+        <v>15</v>
+      </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8">
+        <v>12</v>
+      </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
     </row>
   </sheetData>

--- a/papa2 - werkstations/Tijdsindeling.xlsx
+++ b/papa2 - werkstations/Tijdsindeling.xlsx
@@ -554,7 +554,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>

--- a/papa2 - werkstations/Tijdsindeling.xlsx
+++ b/papa2 - werkstations/Tijdsindeling.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Geschatte tijd (u)</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Automatisch mscs installeren</t>
+  </si>
+  <si>
+    <t>Testplan automatisch mscs</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -186,6 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -336,7 +340,7 @@
             <c:multiLvlStrRef>
               <c:f>Papa2!$A$2:$B$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Handmatig mscs</c:v>
@@ -346,6 +350,9 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>Automatisch mscs installeren</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testplan automatisch mscs</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -357,6 +364,9 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -376,6 +386,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,7 +427,7 @@
             <c:multiLvlStrRef>
               <c:f>Papa2!$A$2:$B$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Handmatig mscs</c:v>
@@ -424,6 +437,9 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>Automatisch mscs installeren</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Testplan automatisch mscs</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -435,6 +451,9 @@
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1655,7 +1674,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1716,9 +1735,15 @@
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">

--- a/papa2 - werkstations/Tijdsindeling.xlsx
+++ b/papa2 - werkstations/Tijdsindeling.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egon\p3ops-red\papa2 - werkstations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\School\HoGent\Projecten\Projecten III\p3ops-red\papa2 - werkstations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Papa2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Geschatte tijd (u)</t>
   </si>
@@ -49,11 +49,23 @@
   <si>
     <t>Testplan automatisch mscs</t>
   </si>
+  <si>
+    <t>Handmatige installatie en configuratie host</t>
+  </si>
+  <si>
+    <t>Testplan handmatige installatie en configuratie host</t>
+  </si>
+  <si>
+    <t>Automatische installatie en configuratie host</t>
+  </si>
+  <si>
+    <t>Testplan Automatische installatie en configuratie host</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,7 +231,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -236,7 +248,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -276,6 +288,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -340,7 +353,7 @@
             <c:multiLvlStrRef>
               <c:f>Papa2!$A$2:$B$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Handmatig mscs</c:v>
@@ -353,6 +366,18 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Testplan automatisch mscs</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Handmatige installatie en configuratie host</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Testplan handmatige installatie en configuratie host</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Automatische installatie en configuratie host</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Testplan Automatische installatie en configuratie host</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -367,6 +392,18 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -390,10 +427,22 @@
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CC04-44E0-8D4A-16A49B0541FE}"/>
             </c:ext>
@@ -427,7 +476,7 @@
             <c:multiLvlStrRef>
               <c:f>Papa2!$A$2:$B$20</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Handmatig mscs</c:v>
@@ -440,6 +489,18 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>Testplan automatisch mscs</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Handmatige installatie en configuratie host</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Testplan handmatige installatie en configuratie host</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Automatische installatie en configuratie host</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Testplan Automatische installatie en configuratie host</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -454,6 +515,18 @@
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -465,10 +538,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CC04-44E0-8D4A-16A49B0541FE}"/>
             </c:ext>
@@ -484,11 +560,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1037015232"/>
-        <c:axId val="-1037010880"/>
+        <c:axId val="393246920"/>
+        <c:axId val="393246528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1037015232"/>
+        <c:axId val="393246920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,6 +602,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -592,7 +669,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1037010880"/>
+        <c:crossAx val="393246528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -600,7 +677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1037010880"/>
+        <c:axId val="393246528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,6 +727,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -710,7 +788,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1037015232"/>
+        <c:crossAx val="393246920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -724,6 +802,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1353,7 +1432,7 @@
         <xdr:cNvPr id="3" name="Grafiek 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,24 +1749,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="59.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1698,7 +1777,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1710,7 +1789,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1720,9 +1799,11 @@
       <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D3" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1734,7 +1815,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1746,109 +1827,133 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>14</v>
+      </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="8"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>28</v>
+      </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
     </row>
   </sheetData>

--- a/papa2 - werkstations/Tijdsindeling.xlsx
+++ b/papa2 - werkstations/Tijdsindeling.xlsx
@@ -538,8 +538,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,11 +566,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="393246920"/>
-        <c:axId val="393246528"/>
+        <c:axId val="408111824"/>
+        <c:axId val="408114960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="393246920"/>
+        <c:axId val="408111824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +675,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393246528"/>
+        <c:crossAx val="408114960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -677,7 +683,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="393246528"/>
+        <c:axId val="408114960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +794,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393246920"/>
+        <c:crossAx val="408111824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,7 +1438,7 @@
         <xdr:cNvPr id="3" name="Grafiek 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1759,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1793,9 @@
       <c r="C2" s="6">
         <v>15</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1800,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,7 +1833,9 @@
       <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">

--- a/papa2 - werkstations/Tijdsindeling.xlsx
+++ b/papa2 - werkstations/Tijdsindeling.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\School\HoGent\Projecten\Projecten III\p3ops-red\papa2 - werkstations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egon\p3ops-red\papa2 - werkstations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Papa2" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +231,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -288,7 +288,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -442,7 +441,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CC04-44E0-8D4A-16A49B0541FE}"/>
             </c:ext>
@@ -544,13 +543,16 @@
                 <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CC04-44E0-8D4A-16A49B0541FE}"/>
             </c:ext>
@@ -608,7 +610,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -733,7 +734,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -808,7 +808,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1438,7 +1437,7 @@
         <xdr:cNvPr id="3" name="Grafiek 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,24 +1754,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="59.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="59.453125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1783,7 +1782,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1821,9 +1820,11 @@
       <c r="C4" s="8">
         <v>12</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1849,7 +1850,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1861,7 +1862,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1873,7 +1874,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1885,85 +1886,85 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" s="13"/>
     </row>
   </sheetData>

--- a/papa2 - werkstations/Tijdsindeling.xlsx
+++ b/papa2 - werkstations/Tijdsindeling.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egon\p3ops-red\papa2 - werkstations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documenten\School\HoGent\Projecten\Projecten III\p3ops-red\papa2 - werkstations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Papa2" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,7 +231,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -248,7 +248,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
@@ -288,6 +288,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -441,7 +442,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CC04-44E0-8D4A-16A49B0541FE}"/>
             </c:ext>
@@ -549,10 +550,16 @@
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CC04-44E0-8D4A-16A49B0541FE}"/>
             </c:ext>
@@ -568,11 +575,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="408111824"/>
-        <c:axId val="408114960"/>
+        <c:axId val="409626232"/>
+        <c:axId val="409629368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="408111824"/>
+        <c:axId val="409626232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,6 +617,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -676,7 +684,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408114960"/>
+        <c:crossAx val="409629368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -684,7 +692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408114960"/>
+        <c:axId val="409629368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,6 +742,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -794,7 +803,7 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408111824"/>
+        <c:crossAx val="409626232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -808,6 +817,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1437,7 +1447,7 @@
         <xdr:cNvPr id="3" name="Grafiek 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,24 +1764,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="59.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="59.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1782,7 +1792,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1796,7 +1806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1810,7 +1820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1824,7 +1834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1838,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1850,7 +1860,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1860,9 +1870,11 @@
       <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1874,7 +1886,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1884,87 +1896,89 @@
       <c r="C9" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="8"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="8"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="8"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="8"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
     </row>
   </sheetData>
